--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="229">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,148 +70,148 @@
     <t>low</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>offer</t>
@@ -1066,10 +1066,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>0.9615384615384616</v>
@@ -1298,7 +1298,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>0.9555555555555556</v>
@@ -1348,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>0.9482758620689655</v>
@@ -1398,7 +1398,7 @@
         <v>44</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0.9444444444444444</v>
@@ -1448,7 +1448,7 @@
         <v>372</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1498,7 +1498,7 @@
         <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10">
         <v>0.9333333333333333</v>
@@ -1548,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11">
         <v>0.8846153846153846</v>
@@ -1598,7 +1598,7 @@
         <v>126</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <v>0.8813559322033898</v>
@@ -1627,28 +1627,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.09027777777777778</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>0.9399999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="F13">
-        <v>0.06000000000000005</v>
+        <v>0.88</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13">
         <v>0.875</v>
@@ -1677,28 +1677,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03773584905660377</v>
+        <v>0.01456876456876457</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>452</v>
       </c>
       <c r="E14">
-        <v>0.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F14">
-        <v>0.88</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>357</v>
+        <v>1691</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1727,28 +1727,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01456876456876457</v>
+        <v>0.01438053097345133</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="E15">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F15">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1691</v>
+        <v>891</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15">
         <v>0.8661417322834646</v>
@@ -1777,28 +1777,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01438053097345133</v>
+        <v>0.01133603238866397</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>77</v>
+        <v>665</v>
       </c>
       <c r="E16">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F16">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>891</v>
+        <v>2442</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16">
         <v>0.8611111111111112</v>
@@ -1827,28 +1827,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01133603238866397</v>
+        <v>0.004741064916119621</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>665</v>
+        <v>472</v>
       </c>
       <c r="E17">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F17">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2442</v>
+        <v>2729</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17">
         <v>0.8558558558558559</v>
@@ -1873,32 +1873,8 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.004741064916119621</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>472</v>
-      </c>
-      <c r="E18">
-        <v>0.97</v>
-      </c>
-      <c r="F18">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2729</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>0.825</v>
@@ -1924,7 +1900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>0.8181818181818182</v>
@@ -1950,7 +1926,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>0.8181818181818182</v>
@@ -1976,7 +1952,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>0.8095238095238095</v>
@@ -2002,7 +1978,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>0.8085106382978723</v>
@@ -2028,7 +2004,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>0.8</v>
@@ -2054,7 +2030,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>0.7659574468085106</v>
@@ -2080,7 +2056,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>0.7658227848101266</v>
@@ -2106,7 +2082,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>0.7227722772277227</v>
@@ -2132,7 +2108,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>0.7083333333333334</v>
@@ -2158,7 +2134,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>0.7037037037037037</v>
@@ -2184,137 +2160,137 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.7030567685589519</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L29">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.6888888888888889</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N30">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.6842105263157895</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.6785714285714286</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.6777777777777778</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L33">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>0.6585365853658537</v>
@@ -2340,7 +2316,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35">
         <v>0.6521739130434783</v>
@@ -2366,7 +2342,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36">
         <v>0.6470588235294118</v>
@@ -2392,7 +2368,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K37">
         <v>0.6470588235294118</v>
@@ -2418,7 +2394,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
         <v>0.6333333333333333</v>
@@ -2444,7 +2420,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39">
         <v>0.6212121212121212</v>
@@ -2470,7 +2446,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40">
         <v>0.6190476190476191</v>
@@ -2496,7 +2472,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41">
         <v>0.6153846153846154</v>
@@ -2522,28 +2498,28 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.599388379204893</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L42">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>131</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2551,25 +2527,25 @@
         <v>64</v>
       </c>
       <c r="K43">
-        <v>0.5909090909090909</v>
+        <v>0.5815789473684211</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2577,25 +2553,25 @@
         <v>65</v>
       </c>
       <c r="K44">
-        <v>0.5815789473684211</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L44">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="M44">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="N44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -5564,7 +5540,7 @@
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K159">
         <v>0.2068853523871387</v>
@@ -5642,7 +5618,7 @@
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K162">
         <v>0.2016052880075543</v>
@@ -6370,7 +6346,7 @@
     </row>
     <row r="190" spans="10:17">
       <c r="J190" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K190">
         <v>0.1439774153074028</v>
@@ -6864,7 +6840,7 @@
     </row>
     <row r="209" spans="10:17">
       <c r="J209" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K209">
         <v>0.06701570680628273</v>
